--- a/biology/Médecine/Peter_Uffenbach/Peter_Uffenbach.xlsx
+++ b/biology/Médecine/Peter_Uffenbach/Peter_Uffenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Uffenbach, né le 28 novembre 1566 à Francfort-sur-le-Main et mort dans cette même ville le 23 octobre 1635, est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Uffenbach fit ses études en Italie, et revint s’établir à Francfort-sur-le-Main, sa patrie, où il mourut le 23 octobre 1635. Éditeur et traducteur de plusieurs ouvrages de médecine, de chirurgie, de vétérinaire et de botanique, il publia entre autres : Practica medicinalis de Leonello Vittori ; les œuvres de Sassonia, médecin de Padoue, sous ce titre : Pantheon medicinæ selectum, Francfort, 1603, in- fol. ; celles de Bartolomeo Montagnana, ibid., 1604, in-fol. ; et donna, en 1619, une édition de l’Hortus sanitatis, de Cuba. Il traduisit de l’italien en allemand l’Herbier de Castore Durante, Francfort, 1609, in-fol., et en latin la chirurgie de Gabriele Ferrara : Sylva chirurgiæ, ibid., 1625, 1629, 1644, in-8°.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertatio de generatione et interitu, Strasbourg, 1591, in-4° ;
 Dissertatio de venenis ac morbificis medicinis in genere, Bâle, 1597, in-4° ;
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Peter Uffenbach », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]</t>
         </is>
